--- a/tools/coordinates.xlsx
+++ b/tools/coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SS\Documents\GitHub\pokemmo_py_auto\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E9015-2E97-4A1B-A139-E3C06D98A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3EEE20-FAA4-4EF9-8242-38E3222D4D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BH16" sqref="BH16"/>
+      <selection activeCell="BF21" sqref="BF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41</v>
       </c>
@@ -1405,8 +1405,11 @@
       <c r="AH19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42</v>
       </c>
@@ -1503,8 +1506,14 @@
       <c r="AH20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43</v>
       </c>
@@ -1601,8 +1610,14 @@
       <c r="AH21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AJ21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>47</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>48</v>
       </c>
@@ -2104,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>49</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -2282,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>52</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>53</v>
       </c>
@@ -2498,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>54</v>
       </c>

--- a/tools/coordinates.xlsx
+++ b/tools/coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SS\Documents\GitHub\pokemmo_py_auto\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3EEE20-FAA4-4EF9-8242-38E3222D4D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7C4DC-5781-44E6-9E23-EE8E207CCE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,12 +388,12 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BF21" sqref="BF21"/>
+      <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>16</v>
       </c>
@@ -493,8 +493,14 @@
       <c r="AH1" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>24</v>
       </c>
@@ -529,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -570,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26</v>
       </c>
@@ -620,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>27</v>
       </c>
@@ -670,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -720,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>29</v>
       </c>
@@ -752,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -784,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -816,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -844,11 +850,26 @@
       <c r="X10">
         <v>2</v>
       </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
       <c r="AC10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -873,14 +894,26 @@
       <c r="X11">
         <v>2</v>
       </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
       <c r="AC11">
         <v>4</v>
       </c>
       <c r="AD11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -912,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -947,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -982,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37</v>
       </c>
@@ -1050,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>38</v>
       </c>
